--- a/grupos/6AEM - Estadisticos 20242.xlsx
+++ b/grupos/6AEM - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
   <si>
     <t>Materia</t>
   </si>
@@ -182,12 +182,12 @@
     <t>León González Ruth Itzel</t>
   </si>
   <si>
+    <t>Velasco Sánchez David</t>
+  </si>
+  <si>
     <t>Ochoa Martínez Mayeli</t>
   </si>
   <si>
-    <t>Velasco Sánchez David</t>
-  </si>
-  <si>
     <t>Cruz Alejo José Armando</t>
   </si>
   <si>
@@ -206,12 +206,12 @@
     <t>BAUTISTA</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
     <t>APALE</t>
   </si>
   <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
     <t>FLORES</t>
   </si>
   <si>
@@ -224,12 +224,12 @@
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>COYOHUA</t>
+  </si>
+  <si>
     <t>TEXOCO</t>
   </si>
   <si>
-    <t>COYOHUA</t>
-  </si>
-  <si>
     <t>DIAZ</t>
   </si>
   <si>
@@ -242,10 +242,10 @@
     <t>EDER</t>
   </si>
   <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
     <t>DANIEL</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
   </si>
   <si>
     <t>CRISTHIAN</t>
@@ -765,22 +765,22 @@
         <v>9</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -804,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="U4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V4">
         <v>10</v>
@@ -813,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="X4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y4">
         <v>9</v>
@@ -842,22 +842,22 @@
         <v>7</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -878,7 +878,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U5">
         <v>7</v>
@@ -890,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="X5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y5">
         <v>7</v>
@@ -919,22 +919,22 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -996,22 +996,22 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="U7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V7">
         <v>10</v>
@@ -1044,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="X7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y7">
         <v>10</v>
@@ -1073,22 +1073,22 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1112,10 +1112,10 @@
         <v>9</v>
       </c>
       <c r="U8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W8">
         <v>9</v>
@@ -1124,7 +1124,7 @@
         <v>8</v>
       </c>
       <c r="Y8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1150,22 +1150,22 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1186,7 +1186,7 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U9">
         <v>5</v>
@@ -1198,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="X9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y9">
         <v>5</v>
@@ -1227,22 +1227,22 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1263,10 +1263,10 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V10">
         <v>10</v>
@@ -1278,7 +1278,7 @@
         <v>9</v>
       </c>
       <c r="Y10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1304,22 +1304,22 @@
         <v>6</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1346,10 +1346,10 @@
         <v>5</v>
       </c>
       <c r="V11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X11">
         <v>5</v>
@@ -1381,22 +1381,22 @@
         <v>9</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1426,13 +1426,13 @@
         <v>10</v>
       </c>
       <c r="W12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X12">
         <v>10</v>
       </c>
       <c r="Y12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1458,22 +1458,22 @@
         <v>6</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1494,22 +1494,22 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U13">
         <v>5</v>
       </c>
       <c r="V13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X13">
         <v>6</v>
       </c>
       <c r="Y13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1535,22 +1535,22 @@
         <v>8</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1571,10 +1571,10 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V14">
         <v>10</v>
@@ -1586,7 +1586,7 @@
         <v>9</v>
       </c>
       <c r="Y14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1612,22 +1612,22 @@
         <v>7</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1648,7 +1648,7 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U15">
         <v>5</v>
@@ -1657,13 +1657,13 @@
         <v>9</v>
       </c>
       <c r="W15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X15">
         <v>7</v>
       </c>
       <c r="Y15">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1689,22 +1689,22 @@
         <v>10</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1728,7 +1728,7 @@
         <v>9</v>
       </c>
       <c r="U16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V16">
         <v>9</v>
@@ -1766,22 +1766,22 @@
         <v>8</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1802,7 +1802,7 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U17">
         <v>7</v>
@@ -1814,7 +1814,7 @@
         <v>10</v>
       </c>
       <c r="X17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y17">
         <v>8</v>
@@ -1843,22 +1843,22 @@
         <v>7</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1894,7 +1894,7 @@
         <v>7</v>
       </c>
       <c r="Y18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1920,22 +1920,22 @@
         <v>7</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1956,7 +1956,7 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U19">
         <v>7</v>
@@ -1997,22 +1997,22 @@
         <v>9</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -2036,7 +2036,7 @@
         <v>10</v>
       </c>
       <c r="U20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V20">
         <v>10</v>
@@ -2048,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="Y20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2074,22 +2074,22 @@
         <v>8</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2113,19 +2113,19 @@
         <v>6</v>
       </c>
       <c r="U21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X21">
         <v>7</v>
       </c>
       <c r="Y21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2151,22 +2151,22 @@
         <v>8</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2187,7 +2187,7 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U22">
         <v>8</v>
@@ -2228,22 +2228,22 @@
         <v>8</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2267,19 +2267,19 @@
         <v>7</v>
       </c>
       <c r="U23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V23">
         <v>10</v>
       </c>
       <c r="W23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X23">
         <v>9</v>
       </c>
       <c r="Y23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2305,22 +2305,22 @@
         <v>8</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2341,22 +2341,22 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y24">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2382,22 +2382,22 @@
         <v>10</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2424,13 +2424,13 @@
         <v>9</v>
       </c>
       <c r="V25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W25">
         <v>9</v>
       </c>
       <c r="X25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y25">
         <v>10</v>
@@ -2459,22 +2459,22 @@
         <v>8</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2495,10 +2495,10 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V26">
         <v>10</v>
@@ -2510,7 +2510,7 @@
         <v>10</v>
       </c>
       <c r="Y26">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2536,22 +2536,22 @@
         <v>9</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2575,7 +2575,7 @@
         <v>10</v>
       </c>
       <c r="U27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V27">
         <v>10</v>
@@ -2584,10 +2584,10 @@
         <v>10</v>
       </c>
       <c r="X27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y27">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2613,22 +2613,22 @@
         <v>6</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2655,13 +2655,13 @@
         <v>6</v>
       </c>
       <c r="V28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y28">
         <v>6</v>
@@ -2690,22 +2690,22 @@
         <v>8</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2732,7 +2732,7 @@
         <v>7</v>
       </c>
       <c r="V29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W29">
         <v>9</v>
@@ -2767,22 +2767,22 @@
         <v>10</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2806,7 +2806,7 @@
         <v>10</v>
       </c>
       <c r="U30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V30">
         <v>10</v>
@@ -2815,7 +2815,7 @@
         <v>10</v>
       </c>
       <c r="X30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y30">
         <v>10</v>
@@ -2844,22 +2844,22 @@
         <v>8</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2892,7 +2892,7 @@
         <v>10</v>
       </c>
       <c r="X31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y31">
         <v>8</v>
@@ -3034,7 +3034,7 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="I4">
         <v>100</v>
@@ -3052,7 +3052,7 @@
         <v>100</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -3093,11 +3093,11 @@
         <v>92</v>
       </c>
       <c r="H5">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="I5">
         <v>92</v>
       </c>
-      <c r="I5">
-        <v>96</v>
-      </c>
       <c r="J5">
         <v>100</v>
       </c>
@@ -3105,17 +3105,17 @@
         <v>100</v>
       </c>
       <c r="L5">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="M5">
+        <v>90</v>
+      </c>
+      <c r="N5">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="O5">
         <v>92</v>
       </c>
-      <c r="N5">
-        <v>92</v>
-      </c>
-      <c r="O5">
-        <v>96</v>
-      </c>
       <c r="P5">
         <v>100</v>
       </c>
@@ -3123,10 +3123,10 @@
         <v>100</v>
       </c>
       <c r="R5">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="S5">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3152,40 +3152,40 @@
         <v>96</v>
       </c>
       <c r="H6">
+        <v>85.7</v>
+      </c>
+      <c r="I6">
         <v>96</v>
       </c>
-      <c r="I6">
-        <v>92</v>
-      </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="L6">
         <v>96</v>
       </c>
       <c r="M6">
+        <v>98</v>
+      </c>
+      <c r="N6">
+        <v>85.7</v>
+      </c>
+      <c r="O6">
         <v>96</v>
       </c>
-      <c r="N6">
-        <v>96</v>
-      </c>
-      <c r="O6">
-        <v>92</v>
-      </c>
       <c r="P6">
         <v>100</v>
       </c>
       <c r="Q6">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="R6">
         <v>96</v>
       </c>
       <c r="S6">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3211,7 +3211,7 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="I7">
         <v>100</v>
@@ -3229,7 +3229,7 @@
         <v>100</v>
       </c>
       <c r="N7">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -3270,37 +3270,37 @@
         <v>100</v>
       </c>
       <c r="H8">
-        <v>96</v>
+        <v>85.7</v>
       </c>
       <c r="I8">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M8">
         <v>100</v>
       </c>
       <c r="N8">
-        <v>96</v>
+        <v>85.7</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P8">
         <v>100</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="R8">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S8">
         <v>100</v>
@@ -3329,37 +3329,37 @@
         <v>92</v>
       </c>
       <c r="H9">
-        <v>88</v>
+        <v>82.5</v>
       </c>
       <c r="I9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="L9">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M9">
         <v>92</v>
       </c>
       <c r="N9">
-        <v>88</v>
+        <v>82.5</v>
       </c>
       <c r="O9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P9">
         <v>100</v>
       </c>
       <c r="Q9">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="R9">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="S9">
         <v>92</v>
@@ -3388,7 +3388,7 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="I10">
         <v>100</v>
@@ -3406,7 +3406,7 @@
         <v>100</v>
       </c>
       <c r="N10">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="O10">
         <v>100</v>
@@ -3447,10 +3447,10 @@
         <v>92</v>
       </c>
       <c r="H11">
-        <v>88</v>
+        <v>82.5</v>
       </c>
       <c r="I11">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J11">
         <v>100</v>
@@ -3459,16 +3459,16 @@
         <v>100</v>
       </c>
       <c r="L11">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M11">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N11">
-        <v>88</v>
+        <v>82.5</v>
       </c>
       <c r="O11">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P11">
         <v>100</v>
@@ -3477,10 +3477,10 @@
         <v>100</v>
       </c>
       <c r="R11">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S11">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -3506,10 +3506,10 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="I12">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J12">
         <v>100</v>
@@ -3518,16 +3518,16 @@
         <v>100</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M12">
         <v>100</v>
       </c>
       <c r="N12">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="O12">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P12">
         <v>100</v>
@@ -3536,7 +3536,7 @@
         <v>100</v>
       </c>
       <c r="R12">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S12">
         <v>100</v>
@@ -3565,40 +3565,40 @@
         <v>96</v>
       </c>
       <c r="H13">
-        <v>96</v>
+        <v>85.7</v>
       </c>
       <c r="I13">
+        <v>90</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>97.7</v>
+      </c>
+      <c r="L13">
         <v>92</v>
       </c>
-      <c r="J13">
-        <v>100</v>
-      </c>
-      <c r="K13">
-        <v>100</v>
-      </c>
-      <c r="L13">
-        <v>96</v>
-      </c>
       <c r="M13">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N13">
-        <v>96</v>
+        <v>85.7</v>
       </c>
       <c r="O13">
+        <v>90</v>
+      </c>
+      <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13">
+        <v>97.7</v>
+      </c>
+      <c r="R13">
         <v>92</v>
       </c>
-      <c r="P13">
-        <v>100</v>
-      </c>
-      <c r="Q13">
-        <v>100</v>
-      </c>
-      <c r="R13">
-        <v>96</v>
-      </c>
       <c r="S13">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -3624,37 +3624,37 @@
         <v>100</v>
       </c>
       <c r="H14">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
         <v>92</v>
       </c>
-      <c r="I14">
-        <v>100</v>
-      </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
-      <c r="K14">
-        <v>100</v>
-      </c>
-      <c r="L14">
-        <v>88</v>
-      </c>
       <c r="M14">
         <v>100</v>
       </c>
       <c r="N14">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>100</v>
+      </c>
+      <c r="R14">
         <v>92</v>
-      </c>
-      <c r="O14">
-        <v>100</v>
-      </c>
-      <c r="P14">
-        <v>100</v>
-      </c>
-      <c r="Q14">
-        <v>100</v>
-      </c>
-      <c r="R14">
-        <v>88</v>
       </c>
       <c r="S14">
         <v>100</v>
@@ -3683,10 +3683,10 @@
         <v>96</v>
       </c>
       <c r="H15">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I15">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J15">
         <v>100</v>
@@ -3695,16 +3695,16 @@
         <v>100</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M15">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N15">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O15">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P15">
         <v>100</v>
@@ -3713,10 +3713,10 @@
         <v>100</v>
       </c>
       <c r="R15">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S15">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -3742,7 +3742,7 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="I16">
         <v>100</v>
@@ -3754,13 +3754,13 @@
         <v>100</v>
       </c>
       <c r="L16">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M16">
         <v>100</v>
       </c>
       <c r="N16">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="O16">
         <v>100</v>
@@ -3772,7 +3772,7 @@
         <v>100</v>
       </c>
       <c r="R16">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="S16">
         <v>100</v>
@@ -3801,7 +3801,7 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="I17">
         <v>100</v>
@@ -3813,13 +3813,13 @@
         <v>100</v>
       </c>
       <c r="L17">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M17">
         <v>100</v>
       </c>
       <c r="N17">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="O17">
         <v>100</v>
@@ -3831,7 +3831,7 @@
         <v>100</v>
       </c>
       <c r="R17">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="S17">
         <v>100</v>
@@ -3860,10 +3860,10 @@
         <v>92</v>
       </c>
       <c r="H18">
-        <v>92</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="I18">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J18">
         <v>100</v>
@@ -3872,16 +3872,16 @@
         <v>100</v>
       </c>
       <c r="L18">
+        <v>70</v>
+      </c>
+      <c r="M18">
         <v>88</v>
       </c>
-      <c r="M18">
-        <v>92</v>
-      </c>
       <c r="N18">
-        <v>92</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="O18">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P18">
         <v>100</v>
@@ -3890,10 +3890,10 @@
         <v>100</v>
       </c>
       <c r="R18">
+        <v>70</v>
+      </c>
+      <c r="S18">
         <v>88</v>
-      </c>
-      <c r="S18">
-        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -3919,10 +3919,10 @@
         <v>96</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="I19">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J19">
         <v>100</v>
@@ -3931,17 +3931,17 @@
         <v>100</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M19">
+        <v>98</v>
+      </c>
+      <c r="N19">
+        <v>87.3</v>
+      </c>
+      <c r="O19">
         <v>96</v>
       </c>
-      <c r="N19">
-        <v>100</v>
-      </c>
-      <c r="O19">
-        <v>92</v>
-      </c>
       <c r="P19">
         <v>100</v>
       </c>
@@ -3949,10 +3949,10 @@
         <v>100</v>
       </c>
       <c r="R19">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S19">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -3978,7 +3978,7 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="I20">
         <v>100</v>
@@ -3996,7 +3996,7 @@
         <v>100</v>
       </c>
       <c r="N20">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="O20">
         <v>100</v>
@@ -4037,16 +4037,16 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I21">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
-        <v>95</v>
+        <v>97.7</v>
       </c>
       <c r="L21">
         <v>96</v>
@@ -4055,16 +4055,16 @@
         <v>100</v>
       </c>
       <c r="N21">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O21">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P21">
         <v>100</v>
       </c>
       <c r="Q21">
-        <v>95</v>
+        <v>97.7</v>
       </c>
       <c r="R21">
         <v>96</v>
@@ -4096,7 +4096,7 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="I22">
         <v>100</v>
@@ -4114,7 +4114,7 @@
         <v>100</v>
       </c>
       <c r="N22">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="O22">
         <v>100</v>
@@ -4155,7 +4155,7 @@
         <v>92</v>
       </c>
       <c r="H23">
-        <v>96</v>
+        <v>85.7</v>
       </c>
       <c r="I23">
         <v>92</v>
@@ -4167,13 +4167,13 @@
         <v>100</v>
       </c>
       <c r="L23">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M23">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N23">
-        <v>96</v>
+        <v>85.7</v>
       </c>
       <c r="O23">
         <v>92</v>
@@ -4185,10 +4185,10 @@
         <v>100</v>
       </c>
       <c r="R23">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S23">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -4214,10 +4214,10 @@
         <v>96</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="I24">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -4226,16 +4226,16 @@
         <v>100</v>
       </c>
       <c r="L24">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M24">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N24">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="O24">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P24">
         <v>100</v>
@@ -4244,10 +4244,10 @@
         <v>100</v>
       </c>
       <c r="R24">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="S24">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -4273,7 +4273,7 @@
         <v>100</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="I25">
         <v>100</v>
@@ -4291,7 +4291,7 @@
         <v>100</v>
       </c>
       <c r="N25">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="O25">
         <v>100</v>
@@ -4332,7 +4332,7 @@
         <v>100</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="I26">
         <v>100</v>
@@ -4344,13 +4344,13 @@
         <v>100</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M26">
         <v>100</v>
       </c>
       <c r="N26">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="O26">
         <v>100</v>
@@ -4362,7 +4362,7 @@
         <v>100</v>
       </c>
       <c r="R26">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S26">
         <v>100</v>
@@ -4391,7 +4391,7 @@
         <v>100</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="I27">
         <v>100</v>
@@ -4403,13 +4403,13 @@
         <v>100</v>
       </c>
       <c r="L27">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M27">
         <v>100</v>
       </c>
       <c r="N27">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="O27">
         <v>100</v>
@@ -4421,7 +4421,7 @@
         <v>100</v>
       </c>
       <c r="R27">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="S27">
         <v>100</v>
@@ -4450,40 +4450,40 @@
         <v>100</v>
       </c>
       <c r="H28">
-        <v>92</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="I28">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="L28">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M28">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N28">
-        <v>92</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="O28">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P28">
         <v>100</v>
       </c>
       <c r="Q28">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="R28">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="S28">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -4509,10 +4509,10 @@
         <v>100</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="I29">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J29">
         <v>100</v>
@@ -4521,16 +4521,16 @@
         <v>100</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="M29">
         <v>100</v>
       </c>
       <c r="N29">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="O29">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P29">
         <v>100</v>
@@ -4539,7 +4539,7 @@
         <v>100</v>
       </c>
       <c r="R29">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="S29">
         <v>100</v>
@@ -4568,7 +4568,7 @@
         <v>100</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="I30">
         <v>100</v>
@@ -4586,7 +4586,7 @@
         <v>100</v>
       </c>
       <c r="N30">
-        <v>100</v>
+        <v>87.3</v>
       </c>
       <c r="O30">
         <v>100</v>
@@ -4627,10 +4627,10 @@
         <v>96</v>
       </c>
       <c r="H31">
-        <v>92</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="I31">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J31">
         <v>100</v>
@@ -4639,16 +4639,16 @@
         <v>100</v>
       </c>
       <c r="L31">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M31">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N31">
-        <v>92</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="O31">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P31">
         <v>100</v>
@@ -4657,10 +4657,10 @@
         <v>100</v>
       </c>
       <c r="R31">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="S31">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4741,7 @@
         <v>21.4</v>
       </c>
       <c r="H2">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4761,19 +4761,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>92.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="G3" s="2">
-        <v>7.1</v>
+        <v>10.7</v>
       </c>
       <c r="H3">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4793,19 +4793,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>96.40000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G4" s="2">
-        <v>3.6</v>
+        <v>7.1</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -4837,7 +4837,7 @@
         <v>3.6</v>
       </c>
       <c r="H5">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -4857,19 +4857,19 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>100</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H6">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4954,7 +4954,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5001,10 +5001,10 @@
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -5024,10 +5024,10 @@
         <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -5047,10 +5047,10 @@
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -5058,19 +5058,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>22330051920003</v>
+        <v>22330051920006</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>52</v>
@@ -5081,7 +5081,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>22330051920003</v>
+        <v>22330051920010</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -5093,10 +5093,10 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -5107,19 +5107,19 @@
         <v>22330051920010</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -5130,19 +5130,19 @@
         <v>22330051920010</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -5150,16 +5150,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>22330051920013</v>
+        <v>22330051920003</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -5173,22 +5173,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>22330051920015</v>
+        <v>22330051920003</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -5196,16 +5196,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>22330051920017</v>
+        <v>22330051920013</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -5214,6 +5214,75 @@
         <v>52</v>
       </c>
       <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>22330051920013</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>22330051920015</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>22330051920017</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14">
         <v>5</v>
       </c>
     </row>
